--- a/server/public/templates/residents-template.xlsx
+++ b/server/public/templates/residents-template.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -53,65 +52,17 @@
     <t>Kewarganegaraan</t>
   </si>
   <si>
-    <t>Alamat</t>
+    <t>Status NIK</t>
   </si>
   <si>
-    <t>Domisili</t>
-  </si>
-  <si>
-    <t>BUDI HARDJO SUPRAPTO</t>
-  </si>
-  <si>
-    <t>3175072501098422</t>
-  </si>
-  <si>
-    <t>3175072207630007</t>
-  </si>
-  <si>
-    <t>ELLI ROSITA SUHARDINI</t>
-  </si>
-  <si>
-    <t>3175075608620002</t>
-  </si>
-  <si>
-    <t>CITRA AZKA RADITYA T.</t>
-  </si>
-  <si>
-    <t>3175075812930001</t>
-  </si>
-  <si>
-    <t>SIDIK PURNAMA HIDAYAT</t>
-  </si>
-  <si>
-    <t>317507301190006</t>
-  </si>
-  <si>
-    <t>3211181210900004</t>
-  </si>
-  <si>
-    <t>DITA INDAH PERMATA SARI</t>
-  </si>
-  <si>
-    <t>317507420890001</t>
-  </si>
-  <si>
-    <t>FARZAN SALIM BARACK</t>
-  </si>
-  <si>
-    <t>3175070812200008</t>
-  </si>
-  <si>
-    <t>07</t>
+    <t>Alasan tidak aktif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -130,17 +81,8 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,14 +95,8 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -176,123 +112,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -304,53 +128,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,10 +144,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -582,6 +361,7 @@
     <col customWidth="1" min="11" max="11" width="20.0"/>
     <col customWidth="1" min="12" max="12" width="17.63"/>
     <col customWidth="1" min="13" max="13" width="18.25"/>
+    <col customWidth="1" min="15" max="15" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,14 +419,14 @@
       <c r="E2" s="4"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="4"/>
@@ -656,14 +436,14 @@
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
@@ -673,14 +453,14 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
@@ -689,15 +469,15 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
@@ -707,14 +487,14 @@
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
@@ -9080,231 +8860,30 @@
       <c r="N498" s="4"/>
       <c r="O498" s="4"/>
     </row>
-    <row r="499">
-      <c r="A499" s="4"/>
-      <c r="B499" s="4"/>
-      <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
-      <c r="E499" s="4"/>
-      <c r="F499" s="4"/>
-      <c r="G499" s="4"/>
-      <c r="H499" s="4"/>
-      <c r="I499" s="4"/>
-      <c r="J499" s="4"/>
-      <c r="K499" s="4"/>
-      <c r="L499" s="4"/>
-      <c r="M499" s="4"/>
-      <c r="N499" s="4"/>
-      <c r="O499" s="4"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="19.25"/>
-    <col customWidth="1" min="2" max="3" width="15.88"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15">
-        <v>31.0</v>
-      </c>
-      <c r="B8" s="16">
-        <v>75.0</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="17">
-        <v>2.501098422E9</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" ref="E8:E14" si="1">CONCATENATE(A8,B8,C8,D8)</f>
-        <v>3175072501098422</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15">
-        <v>31.0</v>
-      </c>
-      <c r="B9" s="16">
-        <v>75.0</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2.501098422E9</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>3175072501098422</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18">
-        <v>31.0</v>
-      </c>
-      <c r="B10" s="19">
-        <v>75.0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="20">
-        <v>2.501098422E9</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>3175072501098422</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="15">
-        <v>31.0</v>
-      </c>
-      <c r="B12" s="16">
-        <v>75.0</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="17">
-        <v>3.01190006E8</v>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>317507301190006</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15">
-        <v>31.0</v>
-      </c>
-      <c r="B13" s="16">
-        <v>75.0</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="17">
-        <v>3.01190006E8</v>
-      </c>
-      <c r="E13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>317507301190006</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="24">
-        <v>31.0</v>
-      </c>
-      <c r="B14" s="25">
-        <v>75.0</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="26">
-        <v>3.01190006E8</v>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>317507301190006</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D498">
+      <formula1>"Laki - Laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J498">
+      <formula1>"Kepala Keluarga,Istri,Anak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G498">
+      <formula1>"A,B,O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I498">
+      <formula1>"Belum Menikah,Menikah,Janda,Duda"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L498">
+      <formula1>"PNS,Pegawai Swasta,TNI,POLRI,Guru,Petani,Pedagang,Wiraswasta,Pelajar,Mahasiswa,Buruh,Pengangguran,Pensiunan,Lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N498">
+      <formula1>"aktif,tidak aktif - meninggal,tidak aktif - pindah,tidak aktif - lainnya"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H498">
+      <formula1>"Islam,Protestan,Katolik,Hindu,Buddha,Konghuchu"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/public/templates/residents-template.xlsx
+++ b/server/public/templates/residents-template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Status dalam Keluarga</t>
+  </si>
+  <si>
+    <t>Keterangan Status Lainnya</t>
   </si>
   <si>
     <t>Pendidikan Terakhir</t>
@@ -358,10 +361,11 @@
     <col customWidth="1" min="6" max="6" width="14.0"/>
     <col customWidth="1" min="9" max="9" width="18.75"/>
     <col customWidth="1" min="10" max="10" width="22.63"/>
-    <col customWidth="1" min="11" max="11" width="20.0"/>
-    <col customWidth="1" min="12" max="12" width="17.63"/>
-    <col customWidth="1" min="13" max="13" width="18.25"/>
-    <col customWidth="1" min="15" max="15" width="17.5"/>
+    <col customWidth="1" min="11" max="11" width="26.75"/>
+    <col customWidth="1" min="12" max="12" width="20.0"/>
+    <col customWidth="1" min="13" max="13" width="17.63"/>
+    <col customWidth="1" min="14" max="14" width="18.25"/>
+    <col customWidth="1" min="16" max="16" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,13 +399,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -409,6 +413,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -422,11 +429,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="4"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="4"/>
@@ -439,11 +447,12 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
@@ -456,11 +465,12 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
@@ -473,11 +483,12 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
@@ -490,11 +501,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
@@ -507,11 +519,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
@@ -524,11 +537,12 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
@@ -541,11 +555,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
@@ -558,11 +573,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
@@ -575,11 +591,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="4"/>
@@ -592,11 +609,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="4"/>
@@ -609,11 +627,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
@@ -626,11 +645,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
@@ -643,11 +663,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
@@ -660,11 +681,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
@@ -677,11 +699,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
@@ -694,11 +717,12 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
@@ -711,11 +735,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
@@ -728,11 +753,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
@@ -745,11 +771,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
@@ -762,11 +789,12 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
@@ -779,11 +807,12 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
@@ -796,11 +825,12 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
@@ -813,11 +843,12 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
@@ -830,11 +861,12 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
@@ -847,11 +879,12 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="4"/>
@@ -864,11 +897,12 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
@@ -881,11 +915,12 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
@@ -898,11 +933,12 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
@@ -915,11 +951,12 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
@@ -932,11 +969,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -949,11 +987,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -966,11 +1005,12 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -983,11 +1023,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -1000,11 +1041,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -1017,11 +1059,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -1034,11 +1077,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -1051,11 +1095,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -1068,11 +1113,12 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="4"/>
@@ -1085,11 +1131,12 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4"/>
@@ -1102,11 +1149,12 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4"/>
@@ -1119,11 +1167,12 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="4"/>
@@ -1136,11 +1185,12 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4"/>
@@ -1153,11 +1203,12 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4"/>
@@ -1170,11 +1221,12 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="7"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4"/>
@@ -1187,11 +1239,12 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4"/>
@@ -1204,11 +1257,12 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="4"/>
@@ -1221,11 +1275,12 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
@@ -1238,11 +1293,12 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4"/>
@@ -1255,11 +1311,12 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
@@ -1272,11 +1329,12 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="4"/>
@@ -1289,11 +1347,12 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
@@ -1306,11 +1365,12 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4"/>
@@ -1323,11 +1383,12 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4"/>
@@ -1340,11 +1401,12 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4"/>
@@ -1357,11 +1419,12 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4"/>
@@ -1374,11 +1437,12 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4"/>
@@ -1391,11 +1455,12 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4"/>
@@ -1408,11 +1473,12 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4"/>
@@ -1425,11 +1491,12 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4"/>
@@ -1442,11 +1509,12 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4"/>
@@ -1459,11 +1527,12 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="4"/>
@@ -1476,11 +1545,12 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4"/>
@@ -1493,11 +1563,12 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4"/>
@@ -1510,11 +1581,12 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4"/>
@@ -1527,11 +1599,12 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="K67" s="7"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4"/>
@@ -1544,11 +1617,12 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4"/>
@@ -1561,11 +1635,12 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="K69" s="7"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -1578,11 +1653,12 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="7"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -1595,11 +1671,12 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="K71" s="7"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -1612,11 +1689,12 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -1629,11 +1707,12 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="K73" s="7"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -1646,11 +1725,12 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="K74" s="7"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -1663,11 +1743,12 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="K75" s="7"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -1680,11 +1761,12 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -1697,11 +1779,12 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
+      <c r="K77" s="7"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -1714,11 +1797,12 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="K78" s="7"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -1731,11 +1815,12 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="K79" s="7"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -1748,11 +1833,12 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="K80" s="7"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -1765,11 +1851,12 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="K81" s="7"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -1782,11 +1869,12 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -1799,11 +1887,12 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
+      <c r="K83" s="7"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -1816,11 +1905,12 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="K84" s="7"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -1833,11 +1923,12 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -1850,11 +1941,12 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="7"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -1867,11 +1959,12 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -1884,11 +1977,12 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+      <c r="K88" s="7"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -1901,11 +1995,12 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="K89" s="7"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -1918,11 +2013,12 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
+      <c r="K90" s="7"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -1935,11 +2031,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="K91" s="7"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -1952,11 +2049,12 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="K92" s="7"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -1969,11 +2067,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="K93" s="7"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -1986,11 +2085,12 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="K94" s="7"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -2003,11 +2103,12 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="K95" s="7"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -2020,11 +2121,12 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="K96" s="7"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -2037,11 +2139,12 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="K97" s="7"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -2054,11 +2157,12 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="K98" s="7"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -2071,11 +2175,12 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+      <c r="K99" s="7"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -2088,11 +2193,12 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -2105,11 +2211,12 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -2122,11 +2229,12 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
+      <c r="K102" s="7"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -2139,11 +2247,12 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
+      <c r="K103" s="7"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -2156,11 +2265,12 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
+      <c r="K104" s="7"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -2173,11 +2283,12 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
+      <c r="K105" s="7"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -2190,11 +2301,12 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
+      <c r="K106" s="7"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -2207,11 +2319,12 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -2224,11 +2337,12 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
+      <c r="K108" s="7"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -2241,11 +2355,12 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -2258,11 +2373,12 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
+      <c r="K110" s="7"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -2275,11 +2391,12 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -2292,11 +2409,12 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -2309,11 +2427,12 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
+      <c r="K113" s="7"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -2326,11 +2445,12 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -2343,11 +2463,12 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
+      <c r="K115" s="7"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -2360,11 +2481,12 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
+      <c r="K116" s="7"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -2377,11 +2499,12 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
+      <c r="K117" s="7"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -2394,11 +2517,12 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
+      <c r="K118" s="7"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -2411,11 +2535,12 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -2428,11 +2553,12 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
+      <c r="K120" s="7"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -2445,11 +2571,12 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -2462,11 +2589,12 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -2479,11 +2607,12 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
+      <c r="K123" s="7"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -2496,11 +2625,12 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
+      <c r="K124" s="7"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -2513,11 +2643,12 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
+      <c r="K125" s="7"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -2530,11 +2661,12 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
+      <c r="K126" s="7"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -2547,11 +2679,12 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
+      <c r="K127" s="7"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -2564,11 +2697,12 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
+      <c r="K128" s="7"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -2581,11 +2715,12 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
+      <c r="K129" s="7"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -2598,11 +2733,12 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
+      <c r="K130" s="7"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -2615,11 +2751,12 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
+      <c r="K131" s="7"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -2632,11 +2769,12 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="K132" s="7"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -2649,11 +2787,12 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
+      <c r="K133" s="7"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -2666,11 +2805,12 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
+      <c r="K134" s="7"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -2683,11 +2823,12 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
+      <c r="K135" s="7"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -2700,11 +2841,12 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
+      <c r="K136" s="7"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -2717,11 +2859,12 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
+      <c r="K137" s="7"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -2734,11 +2877,12 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
+      <c r="K138" s="7"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -2751,11 +2895,12 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
+      <c r="K139" s="7"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -2768,11 +2913,12 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
+      <c r="K140" s="7"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -2785,11 +2931,12 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
+      <c r="K141" s="7"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -2802,11 +2949,12 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
+      <c r="K142" s="7"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -2819,11 +2967,12 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
+      <c r="K143" s="7"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -2836,11 +2985,12 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
+      <c r="K144" s="7"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -2853,11 +3003,12 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
+      <c r="K145" s="7"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -2870,11 +3021,12 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
+      <c r="K146" s="7"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -2887,11 +3039,12 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -2904,11 +3057,12 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="K148" s="7"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -2921,11 +3075,12 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="K149" s="7"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -2938,11 +3093,12 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
+      <c r="K150" s="7"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -2955,11 +3111,12 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
+      <c r="K151" s="7"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -2972,11 +3129,12 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
+      <c r="K152" s="7"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -2989,11 +3147,12 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -3006,11 +3165,12 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
+      <c r="K154" s="7"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -3023,11 +3183,12 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
+      <c r="K155" s="7"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -3040,11 +3201,12 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
+      <c r="K156" s="7"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -3057,11 +3219,12 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
+      <c r="K157" s="7"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -3074,11 +3237,12 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
+      <c r="K158" s="7"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -3091,11 +3255,12 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
+      <c r="K159" s="7"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -3108,11 +3273,12 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
+      <c r="K160" s="7"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -3125,11 +3291,12 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
+      <c r="K161" s="7"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -3142,11 +3309,12 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -3159,11 +3327,12 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -3176,11 +3345,12 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
+      <c r="K164" s="7"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -3193,11 +3363,12 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -3210,11 +3381,12 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
+      <c r="K166" s="7"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -3227,11 +3399,12 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
+      <c r="K167" s="7"/>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -3244,11 +3417,12 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
+      <c r="K168" s="7"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -3261,11 +3435,12 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
+      <c r="K169" s="7"/>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -3278,11 +3453,12 @@
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
+      <c r="K170" s="7"/>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -3295,11 +3471,12 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
+      <c r="K171" s="7"/>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -3312,11 +3489,12 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
+      <c r="K172" s="7"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -3329,11 +3507,12 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
+      <c r="K173" s="7"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -3346,11 +3525,12 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="K174" s="7"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -3363,11 +3543,12 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="K175" s="7"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -3380,11 +3561,12 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="K176" s="7"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -3397,11 +3579,12 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
+      <c r="K177" s="7"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -3414,11 +3597,12 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
+      <c r="K178" s="7"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -3431,11 +3615,12 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
+      <c r="K179" s="7"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -3448,11 +3633,12 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
+      <c r="K180" s="7"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -3465,11 +3651,12 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
+      <c r="K181" s="7"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -3482,11 +3669,12 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
+      <c r="K182" s="7"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -3499,11 +3687,12 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
+      <c r="K183" s="7"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -3516,11 +3705,12 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
+      <c r="K184" s="7"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -3533,11 +3723,12 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
+      <c r="K185" s="7"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -3550,11 +3741,12 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
+      <c r="K186" s="7"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -3567,11 +3759,12 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -3584,11 +3777,12 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
+      <c r="K188" s="7"/>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -3601,11 +3795,12 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
+      <c r="K189" s="7"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -3618,11 +3813,12 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
+      <c r="K190" s="7"/>
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -3635,11 +3831,12 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
+      <c r="K191" s="7"/>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -3652,11 +3849,12 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
+      <c r="K192" s="7"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -3669,11 +3867,12 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
+      <c r="K193" s="7"/>
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -3686,11 +3885,12 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
+      <c r="K194" s="7"/>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -3703,11 +3903,12 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
+      <c r="K195" s="7"/>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -3720,11 +3921,12 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
+      <c r="K196" s="7"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -3737,11 +3939,12 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
+      <c r="K197" s="7"/>
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -3754,11 +3957,12 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
+      <c r="K198" s="7"/>
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -3771,11 +3975,12 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="4"/>
+      <c r="K199" s="7"/>
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -3788,11 +3993,12 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
+      <c r="K200" s="7"/>
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -3805,11 +4011,12 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
+      <c r="K201" s="7"/>
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -3822,11 +4029,12 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
+      <c r="K202" s="7"/>
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -3839,11 +4047,12 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
+      <c r="K203" s="7"/>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -3856,11 +4065,12 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
+      <c r="K204" s="7"/>
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -3873,11 +4083,12 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
+      <c r="K205" s="7"/>
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -3890,11 +4101,12 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
+      <c r="K206" s="7"/>
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -3907,11 +4119,12 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
+      <c r="K207" s="7"/>
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -3924,11 +4137,12 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
+      <c r="K208" s="7"/>
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -3941,11 +4155,12 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="4"/>
+      <c r="K209" s="7"/>
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -3958,11 +4173,12 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="4"/>
+      <c r="K210" s="7"/>
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -3975,11 +4191,12 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="4"/>
+      <c r="K211" s="7"/>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -3992,11 +4209,12 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="4"/>
+      <c r="K212" s="7"/>
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -4009,11 +4227,12 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="4"/>
+      <c r="K213" s="7"/>
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -4026,11 +4245,12 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="4"/>
+      <c r="K214" s="7"/>
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -4043,11 +4263,12 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="4"/>
+      <c r="K215" s="7"/>
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -4060,11 +4281,12 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
+      <c r="K216" s="7"/>
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -4077,11 +4299,12 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
+      <c r="K217" s="7"/>
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -4094,11 +4317,12 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
+      <c r="K218" s="7"/>
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -4111,11 +4335,12 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
+      <c r="K219" s="7"/>
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -4128,11 +4353,12 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
+      <c r="K220" s="7"/>
       <c r="L220" s="4"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -4145,11 +4371,12 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
+      <c r="K221" s="7"/>
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -4162,11 +4389,12 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
+      <c r="K222" s="7"/>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -4179,11 +4407,12 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
+      <c r="K223" s="7"/>
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
       <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -4196,11 +4425,12 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
+      <c r="K224" s="7"/>
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -4213,11 +4443,12 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="4"/>
+      <c r="K225" s="7"/>
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -4230,11 +4461,12 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="4"/>
+      <c r="K226" s="7"/>
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
       <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -4247,11 +4479,12 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="4"/>
+      <c r="K227" s="7"/>
       <c r="L227" s="4"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -4264,11 +4497,12 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
+      <c r="K228" s="7"/>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
       <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -4281,11 +4515,12 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
+      <c r="K229" s="7"/>
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -4298,11 +4533,12 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
+      <c r="K230" s="7"/>
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -4315,11 +4551,12 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="4"/>
+      <c r="K231" s="7"/>
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -4332,11 +4569,12 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="4"/>
+      <c r="K232" s="7"/>
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -4349,11 +4587,12 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="4"/>
+      <c r="K233" s="7"/>
       <c r="L233" s="4"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
       <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -4366,11 +4605,12 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="4"/>
+      <c r="K234" s="7"/>
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
       <c r="O234" s="4"/>
+      <c r="P234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -4383,11 +4623,12 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="4"/>
+      <c r="K235" s="7"/>
       <c r="L235" s="4"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
+      <c r="P235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -4400,11 +4641,12 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="4"/>
+      <c r="K236" s="7"/>
       <c r="L236" s="4"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
       <c r="O236" s="4"/>
+      <c r="P236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -4417,11 +4659,12 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="4"/>
+      <c r="K237" s="7"/>
       <c r="L237" s="4"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
+      <c r="P237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -4434,11 +4677,12 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="4"/>
+      <c r="K238" s="7"/>
       <c r="L238" s="4"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
       <c r="O238" s="4"/>
+      <c r="P238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -4451,11 +4695,12 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="4"/>
+      <c r="K239" s="7"/>
       <c r="L239" s="4"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
       <c r="O239" s="4"/>
+      <c r="P239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -4468,11 +4713,12 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="K240" s="4"/>
+      <c r="K240" s="7"/>
       <c r="L240" s="4"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
       <c r="O240" s="4"/>
+      <c r="P240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -4485,11 +4731,12 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="K241" s="4"/>
+      <c r="K241" s="7"/>
       <c r="L241" s="4"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
       <c r="O241" s="4"/>
+      <c r="P241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -4502,11 +4749,12 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
+      <c r="K242" s="7"/>
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
       <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -4519,11 +4767,12 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="4"/>
+      <c r="K243" s="7"/>
       <c r="L243" s="4"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
       <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -4536,11 +4785,12 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="4"/>
+      <c r="K244" s="7"/>
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
       <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -4553,11 +4803,12 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="4"/>
+      <c r="K245" s="7"/>
       <c r="L245" s="4"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
       <c r="O245" s="4"/>
+      <c r="P245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -4570,11 +4821,12 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="4"/>
+      <c r="K246" s="7"/>
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
       <c r="O246" s="4"/>
+      <c r="P246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -4587,11 +4839,12 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="4"/>
+      <c r="K247" s="7"/>
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
       <c r="O247" s="4"/>
+      <c r="P247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -4604,11 +4857,12 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="4"/>
+      <c r="K248" s="7"/>
       <c r="L248" s="4"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
+      <c r="P248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -4621,11 +4875,12 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="4"/>
+      <c r="K249" s="7"/>
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
       <c r="O249" s="4"/>
+      <c r="P249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -4638,11 +4893,12 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="4"/>
+      <c r="K250" s="7"/>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
       <c r="O250" s="4"/>
+      <c r="P250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -4655,11 +4911,12 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="4"/>
+      <c r="K251" s="7"/>
       <c r="L251" s="4"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
       <c r="O251" s="4"/>
+      <c r="P251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -4672,11 +4929,12 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
+      <c r="K252" s="7"/>
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
       <c r="O252" s="4"/>
+      <c r="P252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -4689,11 +4947,12 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
+      <c r="K253" s="7"/>
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
       <c r="O253" s="4"/>
+      <c r="P253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -4706,11 +4965,12 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="K254" s="4"/>
+      <c r="K254" s="7"/>
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
       <c r="O254" s="4"/>
+      <c r="P254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -4723,11 +4983,12 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
+      <c r="K255" s="7"/>
       <c r="L255" s="4"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
       <c r="O255" s="4"/>
+      <c r="P255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -4740,11 +5001,12 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
+      <c r="K256" s="7"/>
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
       <c r="O256" s="4"/>
+      <c r="P256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -4757,11 +5019,12 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="4"/>
+      <c r="K257" s="7"/>
       <c r="L257" s="4"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
       <c r="O257" s="4"/>
+      <c r="P257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -4774,11 +5037,12 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="4"/>
+      <c r="K258" s="7"/>
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
       <c r="O258" s="4"/>
+      <c r="P258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -4791,11 +5055,12 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="4"/>
+      <c r="K259" s="7"/>
       <c r="L259" s="4"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
       <c r="O259" s="4"/>
+      <c r="P259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -4808,11 +5073,12 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="4"/>
+      <c r="K260" s="7"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
       <c r="O260" s="4"/>
+      <c r="P260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -4825,11 +5091,12 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="4"/>
+      <c r="K261" s="7"/>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
       <c r="O261" s="4"/>
+      <c r="P261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -4842,11 +5109,12 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="4"/>
+      <c r="K262" s="7"/>
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
       <c r="O262" s="4"/>
+      <c r="P262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -4859,11 +5127,12 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="4"/>
+      <c r="K263" s="7"/>
       <c r="L263" s="4"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
       <c r="O263" s="4"/>
+      <c r="P263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -4876,11 +5145,12 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="K264" s="4"/>
+      <c r="K264" s="7"/>
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
       <c r="O264" s="4"/>
+      <c r="P264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -4893,11 +5163,12 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="K265" s="4"/>
+      <c r="K265" s="7"/>
       <c r="L265" s="4"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
       <c r="O265" s="4"/>
+      <c r="P265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -4910,11 +5181,12 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
+      <c r="K266" s="7"/>
       <c r="L266" s="4"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
       <c r="O266" s="4"/>
+      <c r="P266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -4927,11 +5199,12 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="4"/>
+      <c r="K267" s="7"/>
       <c r="L267" s="4"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
       <c r="O267" s="4"/>
+      <c r="P267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -4944,11 +5217,12 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
+      <c r="K268" s="7"/>
       <c r="L268" s="4"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
       <c r="O268" s="4"/>
+      <c r="P268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -4961,11 +5235,12 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="4"/>
+      <c r="K269" s="7"/>
       <c r="L269" s="4"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
       <c r="O269" s="4"/>
+      <c r="P269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -4978,11 +5253,12 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="4"/>
+      <c r="K270" s="7"/>
       <c r="L270" s="4"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
       <c r="O270" s="4"/>
+      <c r="P270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -4995,11 +5271,12 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
+      <c r="K271" s="7"/>
       <c r="L271" s="4"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
       <c r="O271" s="4"/>
+      <c r="P271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -5012,11 +5289,12 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="K272" s="4"/>
+      <c r="K272" s="7"/>
       <c r="L272" s="4"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
       <c r="O272" s="4"/>
+      <c r="P272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -5029,11 +5307,12 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
+      <c r="K273" s="7"/>
       <c r="L273" s="4"/>
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
       <c r="O273" s="4"/>
+      <c r="P273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -5046,11 +5325,12 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="4"/>
+      <c r="K274" s="7"/>
       <c r="L274" s="4"/>
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
       <c r="O274" s="4"/>
+      <c r="P274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -5063,11 +5343,12 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
+      <c r="K275" s="7"/>
       <c r="L275" s="4"/>
       <c r="M275" s="4"/>
       <c r="N275" s="4"/>
       <c r="O275" s="4"/>
+      <c r="P275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -5080,11 +5361,12 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
+      <c r="K276" s="7"/>
       <c r="L276" s="4"/>
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
+      <c r="P276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -5097,11 +5379,12 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="K277" s="4"/>
+      <c r="K277" s="7"/>
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
       <c r="N277" s="4"/>
       <c r="O277" s="4"/>
+      <c r="P277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -5114,11 +5397,12 @@
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="K278" s="4"/>
+      <c r="K278" s="7"/>
       <c r="L278" s="4"/>
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
       <c r="O278" s="4"/>
+      <c r="P278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -5131,11 +5415,12 @@
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="K279" s="4"/>
+      <c r="K279" s="7"/>
       <c r="L279" s="4"/>
       <c r="M279" s="4"/>
       <c r="N279" s="4"/>
       <c r="O279" s="4"/>
+      <c r="P279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -5148,11 +5433,12 @@
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="K280" s="4"/>
+      <c r="K280" s="7"/>
       <c r="L280" s="4"/>
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
       <c r="O280" s="4"/>
+      <c r="P280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -5165,11 +5451,12 @@
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="K281" s="4"/>
+      <c r="K281" s="7"/>
       <c r="L281" s="4"/>
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
       <c r="O281" s="4"/>
+      <c r="P281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -5182,11 +5469,12 @@
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="K282" s="4"/>
+      <c r="K282" s="7"/>
       <c r="L282" s="4"/>
       <c r="M282" s="4"/>
       <c r="N282" s="4"/>
       <c r="O282" s="4"/>
+      <c r="P282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -5199,11 +5487,12 @@
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="4"/>
+      <c r="K283" s="7"/>
       <c r="L283" s="4"/>
       <c r="M283" s="4"/>
       <c r="N283" s="4"/>
       <c r="O283" s="4"/>
+      <c r="P283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -5216,11 +5505,12 @@
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="4"/>
+      <c r="K284" s="7"/>
       <c r="L284" s="4"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
       <c r="O284" s="4"/>
+      <c r="P284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -5233,11 +5523,12 @@
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="K285" s="4"/>
+      <c r="K285" s="7"/>
       <c r="L285" s="4"/>
       <c r="M285" s="4"/>
       <c r="N285" s="4"/>
       <c r="O285" s="4"/>
+      <c r="P285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -5250,11 +5541,12 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="4"/>
+      <c r="K286" s="7"/>
       <c r="L286" s="4"/>
       <c r="M286" s="4"/>
       <c r="N286" s="4"/>
       <c r="O286" s="4"/>
+      <c r="P286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -5267,11 +5559,12 @@
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="K287" s="4"/>
+      <c r="K287" s="7"/>
       <c r="L287" s="4"/>
       <c r="M287" s="4"/>
       <c r="N287" s="4"/>
       <c r="O287" s="4"/>
+      <c r="P287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -5284,11 +5577,12 @@
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="K288" s="4"/>
+      <c r="K288" s="7"/>
       <c r="L288" s="4"/>
       <c r="M288" s="4"/>
       <c r="N288" s="4"/>
       <c r="O288" s="4"/>
+      <c r="P288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -5301,11 +5595,12 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="K289" s="4"/>
+      <c r="K289" s="7"/>
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
       <c r="N289" s="4"/>
       <c r="O289" s="4"/>
+      <c r="P289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -5318,11 +5613,12 @@
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="K290" s="4"/>
+      <c r="K290" s="7"/>
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
       <c r="N290" s="4"/>
       <c r="O290" s="4"/>
+      <c r="P290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -5335,11 +5631,12 @@
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="4"/>
+      <c r="K291" s="7"/>
       <c r="L291" s="4"/>
       <c r="M291" s="4"/>
       <c r="N291" s="4"/>
       <c r="O291" s="4"/>
+      <c r="P291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -5352,11 +5649,12 @@
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="4"/>
+      <c r="K292" s="7"/>
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>
       <c r="N292" s="4"/>
       <c r="O292" s="4"/>
+      <c r="P292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -5369,11 +5667,12 @@
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="4"/>
+      <c r="K293" s="7"/>
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
       <c r="N293" s="4"/>
       <c r="O293" s="4"/>
+      <c r="P293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -5386,11 +5685,12 @@
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="4"/>
+      <c r="K294" s="7"/>
       <c r="L294" s="4"/>
       <c r="M294" s="4"/>
       <c r="N294" s="4"/>
       <c r="O294" s="4"/>
+      <c r="P294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -5403,11 +5703,12 @@
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="K295" s="4"/>
+      <c r="K295" s="7"/>
       <c r="L295" s="4"/>
       <c r="M295" s="4"/>
       <c r="N295" s="4"/>
       <c r="O295" s="4"/>
+      <c r="P295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -5420,11 +5721,12 @@
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="K296" s="4"/>
+      <c r="K296" s="7"/>
       <c r="L296" s="4"/>
       <c r="M296" s="4"/>
       <c r="N296" s="4"/>
       <c r="O296" s="4"/>
+      <c r="P296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -5437,11 +5739,12 @@
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="K297" s="4"/>
+      <c r="K297" s="7"/>
       <c r="L297" s="4"/>
       <c r="M297" s="4"/>
       <c r="N297" s="4"/>
       <c r="O297" s="4"/>
+      <c r="P297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -5454,11 +5757,12 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="K298" s="4"/>
+      <c r="K298" s="7"/>
       <c r="L298" s="4"/>
       <c r="M298" s="4"/>
       <c r="N298" s="4"/>
       <c r="O298" s="4"/>
+      <c r="P298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -5471,11 +5775,12 @@
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="K299" s="4"/>
+      <c r="K299" s="7"/>
       <c r="L299" s="4"/>
       <c r="M299" s="4"/>
       <c r="N299" s="4"/>
       <c r="O299" s="4"/>
+      <c r="P299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -5488,11 +5793,12 @@
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="K300" s="4"/>
+      <c r="K300" s="7"/>
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
       <c r="N300" s="4"/>
       <c r="O300" s="4"/>
+      <c r="P300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -5505,11 +5811,12 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="K301" s="4"/>
+      <c r="K301" s="7"/>
       <c r="L301" s="4"/>
       <c r="M301" s="4"/>
       <c r="N301" s="4"/>
       <c r="O301" s="4"/>
+      <c r="P301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -5522,11 +5829,12 @@
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="K302" s="4"/>
+      <c r="K302" s="7"/>
       <c r="L302" s="4"/>
       <c r="M302" s="4"/>
       <c r="N302" s="4"/>
       <c r="O302" s="4"/>
+      <c r="P302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -5539,11 +5847,12 @@
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="K303" s="4"/>
+      <c r="K303" s="7"/>
       <c r="L303" s="4"/>
       <c r="M303" s="4"/>
       <c r="N303" s="4"/>
       <c r="O303" s="4"/>
+      <c r="P303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -5556,11 +5865,12 @@
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="K304" s="4"/>
+      <c r="K304" s="7"/>
       <c r="L304" s="4"/>
       <c r="M304" s="4"/>
       <c r="N304" s="4"/>
       <c r="O304" s="4"/>
+      <c r="P304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -5573,11 +5883,12 @@
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="K305" s="4"/>
+      <c r="K305" s="7"/>
       <c r="L305" s="4"/>
       <c r="M305" s="4"/>
       <c r="N305" s="4"/>
       <c r="O305" s="4"/>
+      <c r="P305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -5590,11 +5901,12 @@
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="K306" s="4"/>
+      <c r="K306" s="7"/>
       <c r="L306" s="4"/>
       <c r="M306" s="4"/>
       <c r="N306" s="4"/>
       <c r="O306" s="4"/>
+      <c r="P306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -5607,11 +5919,12 @@
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="K307" s="4"/>
+      <c r="K307" s="7"/>
       <c r="L307" s="4"/>
       <c r="M307" s="4"/>
       <c r="N307" s="4"/>
       <c r="O307" s="4"/>
+      <c r="P307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -5624,11 +5937,12 @@
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="K308" s="4"/>
+      <c r="K308" s="7"/>
       <c r="L308" s="4"/>
       <c r="M308" s="4"/>
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
+      <c r="P308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -5641,11 +5955,12 @@
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="K309" s="4"/>
+      <c r="K309" s="7"/>
       <c r="L309" s="4"/>
       <c r="M309" s="4"/>
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
+      <c r="P309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -5658,11 +5973,12 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="K310" s="4"/>
+      <c r="K310" s="7"/>
       <c r="L310" s="4"/>
       <c r="M310" s="4"/>
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
+      <c r="P310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -5675,11 +5991,12 @@
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="K311" s="4"/>
+      <c r="K311" s="7"/>
       <c r="L311" s="4"/>
       <c r="M311" s="4"/>
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
+      <c r="P311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -5692,11 +6009,12 @@
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="K312" s="4"/>
+      <c r="K312" s="7"/>
       <c r="L312" s="4"/>
       <c r="M312" s="4"/>
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
+      <c r="P312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -5709,11 +6027,12 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="K313" s="4"/>
+      <c r="K313" s="7"/>
       <c r="L313" s="4"/>
       <c r="M313" s="4"/>
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
+      <c r="P313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -5726,11 +6045,12 @@
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="K314" s="4"/>
+      <c r="K314" s="7"/>
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
       <c r="N314" s="4"/>
       <c r="O314" s="4"/>
+      <c r="P314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -5743,11 +6063,12 @@
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="4"/>
+      <c r="K315" s="7"/>
       <c r="L315" s="4"/>
       <c r="M315" s="4"/>
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
+      <c r="P315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -5760,11 +6081,12 @@
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="K316" s="4"/>
+      <c r="K316" s="7"/>
       <c r="L316" s="4"/>
       <c r="M316" s="4"/>
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
+      <c r="P316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -5777,11 +6099,12 @@
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="K317" s="4"/>
+      <c r="K317" s="7"/>
       <c r="L317" s="4"/>
       <c r="M317" s="4"/>
       <c r="N317" s="4"/>
       <c r="O317" s="4"/>
+      <c r="P317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -5794,11 +6117,12 @@
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="4"/>
+      <c r="K318" s="7"/>
       <c r="L318" s="4"/>
       <c r="M318" s="4"/>
       <c r="N318" s="4"/>
       <c r="O318" s="4"/>
+      <c r="P318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -5811,11 +6135,12 @@
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="K319" s="4"/>
+      <c r="K319" s="7"/>
       <c r="L319" s="4"/>
       <c r="M319" s="4"/>
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
+      <c r="P319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -5828,11 +6153,12 @@
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="K320" s="4"/>
+      <c r="K320" s="7"/>
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
       <c r="N320" s="4"/>
       <c r="O320" s="4"/>
+      <c r="P320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -5845,11 +6171,12 @@
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="K321" s="4"/>
+      <c r="K321" s="7"/>
       <c r="L321" s="4"/>
       <c r="M321" s="4"/>
       <c r="N321" s="4"/>
       <c r="O321" s="4"/>
+      <c r="P321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -5862,11 +6189,12 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="K322" s="4"/>
+      <c r="K322" s="7"/>
       <c r="L322" s="4"/>
       <c r="M322" s="4"/>
       <c r="N322" s="4"/>
       <c r="O322" s="4"/>
+      <c r="P322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -5879,11 +6207,12 @@
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="K323" s="4"/>
+      <c r="K323" s="7"/>
       <c r="L323" s="4"/>
       <c r="M323" s="4"/>
       <c r="N323" s="4"/>
       <c r="O323" s="4"/>
+      <c r="P323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -5896,11 +6225,12 @@
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="K324" s="4"/>
+      <c r="K324" s="7"/>
       <c r="L324" s="4"/>
       <c r="M324" s="4"/>
       <c r="N324" s="4"/>
       <c r="O324" s="4"/>
+      <c r="P324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -5913,11 +6243,12 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="K325" s="4"/>
+      <c r="K325" s="7"/>
       <c r="L325" s="4"/>
       <c r="M325" s="4"/>
       <c r="N325" s="4"/>
       <c r="O325" s="4"/>
+      <c r="P325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -5930,11 +6261,12 @@
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="K326" s="4"/>
+      <c r="K326" s="7"/>
       <c r="L326" s="4"/>
       <c r="M326" s="4"/>
       <c r="N326" s="4"/>
       <c r="O326" s="4"/>
+      <c r="P326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -5947,11 +6279,12 @@
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="4"/>
+      <c r="K327" s="7"/>
       <c r="L327" s="4"/>
       <c r="M327" s="4"/>
       <c r="N327" s="4"/>
       <c r="O327" s="4"/>
+      <c r="P327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -5964,11 +6297,12 @@
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="4"/>
+      <c r="K328" s="7"/>
       <c r="L328" s="4"/>
       <c r="M328" s="4"/>
       <c r="N328" s="4"/>
       <c r="O328" s="4"/>
+      <c r="P328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -5981,11 +6315,12 @@
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="4"/>
+      <c r="K329" s="7"/>
       <c r="L329" s="4"/>
       <c r="M329" s="4"/>
       <c r="N329" s="4"/>
       <c r="O329" s="4"/>
+      <c r="P329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -5998,11 +6333,12 @@
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="4"/>
+      <c r="K330" s="7"/>
       <c r="L330" s="4"/>
       <c r="M330" s="4"/>
       <c r="N330" s="4"/>
       <c r="O330" s="4"/>
+      <c r="P330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -6015,11 +6351,12 @@
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="4"/>
+      <c r="K331" s="7"/>
       <c r="L331" s="4"/>
       <c r="M331" s="4"/>
       <c r="N331" s="4"/>
       <c r="O331" s="4"/>
+      <c r="P331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -6032,11 +6369,12 @@
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="4"/>
+      <c r="K332" s="7"/>
       <c r="L332" s="4"/>
       <c r="M332" s="4"/>
       <c r="N332" s="4"/>
       <c r="O332" s="4"/>
+      <c r="P332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -6049,11 +6387,12 @@
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="4"/>
+      <c r="K333" s="7"/>
       <c r="L333" s="4"/>
       <c r="M333" s="4"/>
       <c r="N333" s="4"/>
       <c r="O333" s="4"/>
+      <c r="P333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -6066,11 +6405,12 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="4"/>
+      <c r="K334" s="7"/>
       <c r="L334" s="4"/>
       <c r="M334" s="4"/>
       <c r="N334" s="4"/>
       <c r="O334" s="4"/>
+      <c r="P334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -6083,11 +6423,12 @@
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="4"/>
+      <c r="K335" s="7"/>
       <c r="L335" s="4"/>
       <c r="M335" s="4"/>
       <c r="N335" s="4"/>
       <c r="O335" s="4"/>
+      <c r="P335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -6100,11 +6441,12 @@
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="4"/>
+      <c r="K336" s="7"/>
       <c r="L336" s="4"/>
       <c r="M336" s="4"/>
       <c r="N336" s="4"/>
       <c r="O336" s="4"/>
+      <c r="P336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -6117,11 +6459,12 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="4"/>
+      <c r="K337" s="7"/>
       <c r="L337" s="4"/>
       <c r="M337" s="4"/>
       <c r="N337" s="4"/>
       <c r="O337" s="4"/>
+      <c r="P337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -6134,11 +6477,12 @@
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="4"/>
+      <c r="K338" s="7"/>
       <c r="L338" s="4"/>
       <c r="M338" s="4"/>
       <c r="N338" s="4"/>
       <c r="O338" s="4"/>
+      <c r="P338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -6151,11 +6495,12 @@
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="K339" s="4"/>
+      <c r="K339" s="7"/>
       <c r="L339" s="4"/>
       <c r="M339" s="4"/>
       <c r="N339" s="4"/>
       <c r="O339" s="4"/>
+      <c r="P339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -6168,11 +6513,12 @@
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="K340" s="4"/>
+      <c r="K340" s="7"/>
       <c r="L340" s="4"/>
       <c r="M340" s="4"/>
       <c r="N340" s="4"/>
       <c r="O340" s="4"/>
+      <c r="P340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -6185,11 +6531,12 @@
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="4"/>
+      <c r="K341" s="7"/>
       <c r="L341" s="4"/>
       <c r="M341" s="4"/>
       <c r="N341" s="4"/>
       <c r="O341" s="4"/>
+      <c r="P341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -6202,11 +6549,12 @@
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="K342" s="4"/>
+      <c r="K342" s="7"/>
       <c r="L342" s="4"/>
       <c r="M342" s="4"/>
       <c r="N342" s="4"/>
       <c r="O342" s="4"/>
+      <c r="P342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -6219,11 +6567,12 @@
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="K343" s="4"/>
+      <c r="K343" s="7"/>
       <c r="L343" s="4"/>
       <c r="M343" s="4"/>
       <c r="N343" s="4"/>
       <c r="O343" s="4"/>
+      <c r="P343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -6236,11 +6585,12 @@
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="K344" s="4"/>
+      <c r="K344" s="7"/>
       <c r="L344" s="4"/>
       <c r="M344" s="4"/>
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
+      <c r="P344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -6253,11 +6603,12 @@
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="K345" s="4"/>
+      <c r="K345" s="7"/>
       <c r="L345" s="4"/>
       <c r="M345" s="4"/>
       <c r="N345" s="4"/>
       <c r="O345" s="4"/>
+      <c r="P345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -6270,11 +6621,12 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="K346" s="4"/>
+      <c r="K346" s="7"/>
       <c r="L346" s="4"/>
       <c r="M346" s="4"/>
       <c r="N346" s="4"/>
       <c r="O346" s="4"/>
+      <c r="P346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -6287,11 +6639,12 @@
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="K347" s="4"/>
+      <c r="K347" s="7"/>
       <c r="L347" s="4"/>
       <c r="M347" s="4"/>
       <c r="N347" s="4"/>
       <c r="O347" s="4"/>
+      <c r="P347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -6304,11 +6657,12 @@
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="K348" s="4"/>
+      <c r="K348" s="7"/>
       <c r="L348" s="4"/>
       <c r="M348" s="4"/>
       <c r="N348" s="4"/>
       <c r="O348" s="4"/>
+      <c r="P348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -6321,11 +6675,12 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="K349" s="4"/>
+      <c r="K349" s="7"/>
       <c r="L349" s="4"/>
       <c r="M349" s="4"/>
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>
+      <c r="P349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -6338,11 +6693,12 @@
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="K350" s="4"/>
+      <c r="K350" s="7"/>
       <c r="L350" s="4"/>
       <c r="M350" s="4"/>
       <c r="N350" s="4"/>
       <c r="O350" s="4"/>
+      <c r="P350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -6355,11 +6711,12 @@
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="K351" s="4"/>
+      <c r="K351" s="7"/>
       <c r="L351" s="4"/>
       <c r="M351" s="4"/>
       <c r="N351" s="4"/>
       <c r="O351" s="4"/>
+      <c r="P351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -6372,11 +6729,12 @@
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="K352" s="4"/>
+      <c r="K352" s="7"/>
       <c r="L352" s="4"/>
       <c r="M352" s="4"/>
       <c r="N352" s="4"/>
       <c r="O352" s="4"/>
+      <c r="P352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -6389,11 +6747,12 @@
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="K353" s="4"/>
+      <c r="K353" s="7"/>
       <c r="L353" s="4"/>
       <c r="M353" s="4"/>
       <c r="N353" s="4"/>
       <c r="O353" s="4"/>
+      <c r="P353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -6406,11 +6765,12 @@
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="K354" s="4"/>
+      <c r="K354" s="7"/>
       <c r="L354" s="4"/>
       <c r="M354" s="4"/>
       <c r="N354" s="4"/>
       <c r="O354" s="4"/>
+      <c r="P354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -6423,11 +6783,12 @@
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="K355" s="4"/>
+      <c r="K355" s="7"/>
       <c r="L355" s="4"/>
       <c r="M355" s="4"/>
       <c r="N355" s="4"/>
       <c r="O355" s="4"/>
+      <c r="P355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -6440,11 +6801,12 @@
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="K356" s="4"/>
+      <c r="K356" s="7"/>
       <c r="L356" s="4"/>
       <c r="M356" s="4"/>
       <c r="N356" s="4"/>
       <c r="O356" s="4"/>
+      <c r="P356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -6457,11 +6819,12 @@
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="K357" s="4"/>
+      <c r="K357" s="7"/>
       <c r="L357" s="4"/>
       <c r="M357" s="4"/>
       <c r="N357" s="4"/>
       <c r="O357" s="4"/>
+      <c r="P357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -6474,11 +6837,12 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="K358" s="4"/>
+      <c r="K358" s="7"/>
       <c r="L358" s="4"/>
       <c r="M358" s="4"/>
       <c r="N358" s="4"/>
       <c r="O358" s="4"/>
+      <c r="P358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -6491,11 +6855,12 @@
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="K359" s="4"/>
+      <c r="K359" s="7"/>
       <c r="L359" s="4"/>
       <c r="M359" s="4"/>
       <c r="N359" s="4"/>
       <c r="O359" s="4"/>
+      <c r="P359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -6508,11 +6873,12 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="K360" s="4"/>
+      <c r="K360" s="7"/>
       <c r="L360" s="4"/>
       <c r="M360" s="4"/>
       <c r="N360" s="4"/>
       <c r="O360" s="4"/>
+      <c r="P360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -6525,11 +6891,12 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="K361" s="4"/>
+      <c r="K361" s="7"/>
       <c r="L361" s="4"/>
       <c r="M361" s="4"/>
       <c r="N361" s="4"/>
       <c r="O361" s="4"/>
+      <c r="P361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -6542,11 +6909,12 @@
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="K362" s="4"/>
+      <c r="K362" s="7"/>
       <c r="L362" s="4"/>
       <c r="M362" s="4"/>
       <c r="N362" s="4"/>
       <c r="O362" s="4"/>
+      <c r="P362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -6559,11 +6927,12 @@
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="K363" s="4"/>
+      <c r="K363" s="7"/>
       <c r="L363" s="4"/>
       <c r="M363" s="4"/>
       <c r="N363" s="4"/>
       <c r="O363" s="4"/>
+      <c r="P363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -6576,11 +6945,12 @@
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="K364" s="4"/>
+      <c r="K364" s="7"/>
       <c r="L364" s="4"/>
       <c r="M364" s="4"/>
       <c r="N364" s="4"/>
       <c r="O364" s="4"/>
+      <c r="P364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -6593,11 +6963,12 @@
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="K365" s="4"/>
+      <c r="K365" s="7"/>
       <c r="L365" s="4"/>
       <c r="M365" s="4"/>
       <c r="N365" s="4"/>
       <c r="O365" s="4"/>
+      <c r="P365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -6610,11 +6981,12 @@
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="K366" s="4"/>
+      <c r="K366" s="7"/>
       <c r="L366" s="4"/>
       <c r="M366" s="4"/>
       <c r="N366" s="4"/>
       <c r="O366" s="4"/>
+      <c r="P366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -6627,11 +6999,12 @@
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="K367" s="4"/>
+      <c r="K367" s="7"/>
       <c r="L367" s="4"/>
       <c r="M367" s="4"/>
       <c r="N367" s="4"/>
       <c r="O367" s="4"/>
+      <c r="P367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -6644,11 +7017,12 @@
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="K368" s="4"/>
+      <c r="K368" s="7"/>
       <c r="L368" s="4"/>
       <c r="M368" s="4"/>
       <c r="N368" s="4"/>
       <c r="O368" s="4"/>
+      <c r="P368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -6661,11 +7035,12 @@
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="K369" s="4"/>
+      <c r="K369" s="7"/>
       <c r="L369" s="4"/>
       <c r="M369" s="4"/>
       <c r="N369" s="4"/>
       <c r="O369" s="4"/>
+      <c r="P369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -6678,11 +7053,12 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="K370" s="4"/>
+      <c r="K370" s="7"/>
       <c r="L370" s="4"/>
       <c r="M370" s="4"/>
       <c r="N370" s="4"/>
       <c r="O370" s="4"/>
+      <c r="P370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -6695,11 +7071,12 @@
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="K371" s="4"/>
+      <c r="K371" s="7"/>
       <c r="L371" s="4"/>
       <c r="M371" s="4"/>
       <c r="N371" s="4"/>
       <c r="O371" s="4"/>
+      <c r="P371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -6712,11 +7089,12 @@
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="K372" s="4"/>
+      <c r="K372" s="7"/>
       <c r="L372" s="4"/>
       <c r="M372" s="4"/>
       <c r="N372" s="4"/>
       <c r="O372" s="4"/>
+      <c r="P372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -6729,11 +7107,12 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="K373" s="4"/>
+      <c r="K373" s="7"/>
       <c r="L373" s="4"/>
       <c r="M373" s="4"/>
       <c r="N373" s="4"/>
       <c r="O373" s="4"/>
+      <c r="P373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -6746,11 +7125,12 @@
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="K374" s="4"/>
+      <c r="K374" s="7"/>
       <c r="L374" s="4"/>
       <c r="M374" s="4"/>
       <c r="N374" s="4"/>
       <c r="O374" s="4"/>
+      <c r="P374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -6763,11 +7143,12 @@
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="K375" s="4"/>
+      <c r="K375" s="7"/>
       <c r="L375" s="4"/>
       <c r="M375" s="4"/>
       <c r="N375" s="4"/>
       <c r="O375" s="4"/>
+      <c r="P375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -6780,11 +7161,12 @@
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="K376" s="4"/>
+      <c r="K376" s="7"/>
       <c r="L376" s="4"/>
       <c r="M376" s="4"/>
       <c r="N376" s="4"/>
       <c r="O376" s="4"/>
+      <c r="P376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -6797,11 +7179,12 @@
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="K377" s="4"/>
+      <c r="K377" s="7"/>
       <c r="L377" s="4"/>
       <c r="M377" s="4"/>
       <c r="N377" s="4"/>
       <c r="O377" s="4"/>
+      <c r="P377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -6814,11 +7197,12 @@
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="K378" s="4"/>
+      <c r="K378" s="7"/>
       <c r="L378" s="4"/>
       <c r="M378" s="4"/>
       <c r="N378" s="4"/>
       <c r="O378" s="4"/>
+      <c r="P378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -6831,11 +7215,12 @@
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="K379" s="4"/>
+      <c r="K379" s="7"/>
       <c r="L379" s="4"/>
       <c r="M379" s="4"/>
       <c r="N379" s="4"/>
       <c r="O379" s="4"/>
+      <c r="P379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -6848,11 +7233,12 @@
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="K380" s="4"/>
+      <c r="K380" s="7"/>
       <c r="L380" s="4"/>
       <c r="M380" s="4"/>
       <c r="N380" s="4"/>
       <c r="O380" s="4"/>
+      <c r="P380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -6865,11 +7251,12 @@
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="K381" s="4"/>
+      <c r="K381" s="7"/>
       <c r="L381" s="4"/>
       <c r="M381" s="4"/>
       <c r="N381" s="4"/>
       <c r="O381" s="4"/>
+      <c r="P381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -6882,11 +7269,12 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="K382" s="4"/>
+      <c r="K382" s="7"/>
       <c r="L382" s="4"/>
       <c r="M382" s="4"/>
       <c r="N382" s="4"/>
       <c r="O382" s="4"/>
+      <c r="P382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -6899,11 +7287,12 @@
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="K383" s="4"/>
+      <c r="K383" s="7"/>
       <c r="L383" s="4"/>
       <c r="M383" s="4"/>
       <c r="N383" s="4"/>
       <c r="O383" s="4"/>
+      <c r="P383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -6916,11 +7305,12 @@
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="K384" s="4"/>
+      <c r="K384" s="7"/>
       <c r="L384" s="4"/>
       <c r="M384" s="4"/>
       <c r="N384" s="4"/>
       <c r="O384" s="4"/>
+      <c r="P384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -6933,11 +7323,12 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="K385" s="4"/>
+      <c r="K385" s="7"/>
       <c r="L385" s="4"/>
       <c r="M385" s="4"/>
       <c r="N385" s="4"/>
       <c r="O385" s="4"/>
+      <c r="P385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -6950,11 +7341,12 @@
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="K386" s="4"/>
+      <c r="K386" s="7"/>
       <c r="L386" s="4"/>
       <c r="M386" s="4"/>
       <c r="N386" s="4"/>
       <c r="O386" s="4"/>
+      <c r="P386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -6967,11 +7359,12 @@
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="K387" s="4"/>
+      <c r="K387" s="7"/>
       <c r="L387" s="4"/>
       <c r="M387" s="4"/>
       <c r="N387" s="4"/>
       <c r="O387" s="4"/>
+      <c r="P387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -6984,11 +7377,12 @@
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="K388" s="4"/>
+      <c r="K388" s="7"/>
       <c r="L388" s="4"/>
       <c r="M388" s="4"/>
       <c r="N388" s="4"/>
       <c r="O388" s="4"/>
+      <c r="P388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -7001,11 +7395,12 @@
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="K389" s="4"/>
+      <c r="K389" s="7"/>
       <c r="L389" s="4"/>
       <c r="M389" s="4"/>
       <c r="N389" s="4"/>
       <c r="O389" s="4"/>
+      <c r="P389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -7018,11 +7413,12 @@
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="K390" s="4"/>
+      <c r="K390" s="7"/>
       <c r="L390" s="4"/>
       <c r="M390" s="4"/>
       <c r="N390" s="4"/>
       <c r="O390" s="4"/>
+      <c r="P390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -7035,11 +7431,12 @@
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="K391" s="4"/>
+      <c r="K391" s="7"/>
       <c r="L391" s="4"/>
       <c r="M391" s="4"/>
       <c r="N391" s="4"/>
       <c r="O391" s="4"/>
+      <c r="P391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -7052,11 +7449,12 @@
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="K392" s="4"/>
+      <c r="K392" s="7"/>
       <c r="L392" s="4"/>
       <c r="M392" s="4"/>
       <c r="N392" s="4"/>
       <c r="O392" s="4"/>
+      <c r="P392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -7069,11 +7467,12 @@
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="K393" s="4"/>
+      <c r="K393" s="7"/>
       <c r="L393" s="4"/>
       <c r="M393" s="4"/>
       <c r="N393" s="4"/>
       <c r="O393" s="4"/>
+      <c r="P393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -7086,11 +7485,12 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="K394" s="4"/>
+      <c r="K394" s="7"/>
       <c r="L394" s="4"/>
       <c r="M394" s="4"/>
       <c r="N394" s="4"/>
       <c r="O394" s="4"/>
+      <c r="P394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -7103,11 +7503,12 @@
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="K395" s="4"/>
+      <c r="K395" s="7"/>
       <c r="L395" s="4"/>
       <c r="M395" s="4"/>
       <c r="N395" s="4"/>
       <c r="O395" s="4"/>
+      <c r="P395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -7120,11 +7521,12 @@
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="K396" s="4"/>
+      <c r="K396" s="7"/>
       <c r="L396" s="4"/>
       <c r="M396" s="4"/>
       <c r="N396" s="4"/>
       <c r="O396" s="4"/>
+      <c r="P396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -7137,11 +7539,12 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="K397" s="4"/>
+      <c r="K397" s="7"/>
       <c r="L397" s="4"/>
       <c r="M397" s="4"/>
       <c r="N397" s="4"/>
       <c r="O397" s="4"/>
+      <c r="P397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -7154,11 +7557,12 @@
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="K398" s="4"/>
+      <c r="K398" s="7"/>
       <c r="L398" s="4"/>
       <c r="M398" s="4"/>
       <c r="N398" s="4"/>
       <c r="O398" s="4"/>
+      <c r="P398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -7171,11 +7575,12 @@
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="K399" s="4"/>
+      <c r="K399" s="7"/>
       <c r="L399" s="4"/>
       <c r="M399" s="4"/>
       <c r="N399" s="4"/>
       <c r="O399" s="4"/>
+      <c r="P399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -7188,11 +7593,12 @@
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="K400" s="4"/>
+      <c r="K400" s="7"/>
       <c r="L400" s="4"/>
       <c r="M400" s="4"/>
       <c r="N400" s="4"/>
       <c r="O400" s="4"/>
+      <c r="P400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -7205,11 +7611,12 @@
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="K401" s="4"/>
+      <c r="K401" s="7"/>
       <c r="L401" s="4"/>
       <c r="M401" s="4"/>
       <c r="N401" s="4"/>
       <c r="O401" s="4"/>
+      <c r="P401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -7222,11 +7629,12 @@
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="K402" s="4"/>
+      <c r="K402" s="7"/>
       <c r="L402" s="4"/>
       <c r="M402" s="4"/>
       <c r="N402" s="4"/>
       <c r="O402" s="4"/>
+      <c r="P402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -7239,11 +7647,12 @@
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="K403" s="4"/>
+      <c r="K403" s="7"/>
       <c r="L403" s="4"/>
       <c r="M403" s="4"/>
       <c r="N403" s="4"/>
       <c r="O403" s="4"/>
+      <c r="P403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -7256,11 +7665,12 @@
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="K404" s="4"/>
+      <c r="K404" s="7"/>
       <c r="L404" s="4"/>
       <c r="M404" s="4"/>
       <c r="N404" s="4"/>
       <c r="O404" s="4"/>
+      <c r="P404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -7273,11 +7683,12 @@
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="K405" s="4"/>
+      <c r="K405" s="7"/>
       <c r="L405" s="4"/>
       <c r="M405" s="4"/>
       <c r="N405" s="4"/>
       <c r="O405" s="4"/>
+      <c r="P405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -7290,11 +7701,12 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="K406" s="4"/>
+      <c r="K406" s="7"/>
       <c r="L406" s="4"/>
       <c r="M406" s="4"/>
       <c r="N406" s="4"/>
       <c r="O406" s="4"/>
+      <c r="P406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -7307,11 +7719,12 @@
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="K407" s="4"/>
+      <c r="K407" s="7"/>
       <c r="L407" s="4"/>
       <c r="M407" s="4"/>
       <c r="N407" s="4"/>
       <c r="O407" s="4"/>
+      <c r="P407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -7324,11 +7737,12 @@
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="K408" s="4"/>
+      <c r="K408" s="7"/>
       <c r="L408" s="4"/>
       <c r="M408" s="4"/>
       <c r="N408" s="4"/>
       <c r="O408" s="4"/>
+      <c r="P408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -7341,11 +7755,12 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="K409" s="4"/>
+      <c r="K409" s="7"/>
       <c r="L409" s="4"/>
       <c r="M409" s="4"/>
       <c r="N409" s="4"/>
       <c r="O409" s="4"/>
+      <c r="P409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -7358,11 +7773,12 @@
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="K410" s="4"/>
+      <c r="K410" s="7"/>
       <c r="L410" s="4"/>
       <c r="M410" s="4"/>
       <c r="N410" s="4"/>
       <c r="O410" s="4"/>
+      <c r="P410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -7375,11 +7791,12 @@
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="K411" s="4"/>
+      <c r="K411" s="7"/>
       <c r="L411" s="4"/>
       <c r="M411" s="4"/>
       <c r="N411" s="4"/>
       <c r="O411" s="4"/>
+      <c r="P411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -7392,11 +7809,12 @@
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="K412" s="4"/>
+      <c r="K412" s="7"/>
       <c r="L412" s="4"/>
       <c r="M412" s="4"/>
       <c r="N412" s="4"/>
       <c r="O412" s="4"/>
+      <c r="P412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -7409,11 +7827,12 @@
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="K413" s="4"/>
+      <c r="K413" s="7"/>
       <c r="L413" s="4"/>
       <c r="M413" s="4"/>
       <c r="N413" s="4"/>
       <c r="O413" s="4"/>
+      <c r="P413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -7426,11 +7845,12 @@
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="K414" s="4"/>
+      <c r="K414" s="7"/>
       <c r="L414" s="4"/>
       <c r="M414" s="4"/>
       <c r="N414" s="4"/>
       <c r="O414" s="4"/>
+      <c r="P414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -7443,11 +7863,12 @@
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="K415" s="4"/>
+      <c r="K415" s="7"/>
       <c r="L415" s="4"/>
       <c r="M415" s="4"/>
       <c r="N415" s="4"/>
       <c r="O415" s="4"/>
+      <c r="P415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -7460,11 +7881,12 @@
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="K416" s="4"/>
+      <c r="K416" s="7"/>
       <c r="L416" s="4"/>
       <c r="M416" s="4"/>
       <c r="N416" s="4"/>
       <c r="O416" s="4"/>
+      <c r="P416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -7477,11 +7899,12 @@
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="K417" s="4"/>
+      <c r="K417" s="7"/>
       <c r="L417" s="4"/>
       <c r="M417" s="4"/>
       <c r="N417" s="4"/>
       <c r="O417" s="4"/>
+      <c r="P417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -7494,11 +7917,12 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="K418" s="4"/>
+      <c r="K418" s="7"/>
       <c r="L418" s="4"/>
       <c r="M418" s="4"/>
       <c r="N418" s="4"/>
       <c r="O418" s="4"/>
+      <c r="P418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -7511,11 +7935,12 @@
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="K419" s="4"/>
+      <c r="K419" s="7"/>
       <c r="L419" s="4"/>
       <c r="M419" s="4"/>
       <c r="N419" s="4"/>
       <c r="O419" s="4"/>
+      <c r="P419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -7528,11 +7953,12 @@
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
-      <c r="K420" s="4"/>
+      <c r="K420" s="7"/>
       <c r="L420" s="4"/>
       <c r="M420" s="4"/>
       <c r="N420" s="4"/>
       <c r="O420" s="4"/>
+      <c r="P420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -7545,11 +7971,12 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
-      <c r="K421" s="4"/>
+      <c r="K421" s="7"/>
       <c r="L421" s="4"/>
       <c r="M421" s="4"/>
       <c r="N421" s="4"/>
       <c r="O421" s="4"/>
+      <c r="P421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -7562,11 +7989,12 @@
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="K422" s="4"/>
+      <c r="K422" s="7"/>
       <c r="L422" s="4"/>
       <c r="M422" s="4"/>
       <c r="N422" s="4"/>
       <c r="O422" s="4"/>
+      <c r="P422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -7579,11 +8007,12 @@
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="K423" s="4"/>
+      <c r="K423" s="7"/>
       <c r="L423" s="4"/>
       <c r="M423" s="4"/>
       <c r="N423" s="4"/>
       <c r="O423" s="4"/>
+      <c r="P423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -7596,11 +8025,12 @@
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="K424" s="4"/>
+      <c r="K424" s="7"/>
       <c r="L424" s="4"/>
       <c r="M424" s="4"/>
       <c r="N424" s="4"/>
       <c r="O424" s="4"/>
+      <c r="P424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -7613,11 +8043,12 @@
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="K425" s="4"/>
+      <c r="K425" s="7"/>
       <c r="L425" s="4"/>
       <c r="M425" s="4"/>
       <c r="N425" s="4"/>
       <c r="O425" s="4"/>
+      <c r="P425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -7630,11 +8061,12 @@
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="K426" s="4"/>
+      <c r="K426" s="7"/>
       <c r="L426" s="4"/>
       <c r="M426" s="4"/>
       <c r="N426" s="4"/>
       <c r="O426" s="4"/>
+      <c r="P426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -7647,11 +8079,12 @@
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="K427" s="4"/>
+      <c r="K427" s="7"/>
       <c r="L427" s="4"/>
       <c r="M427" s="4"/>
       <c r="N427" s="4"/>
       <c r="O427" s="4"/>
+      <c r="P427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -7664,11 +8097,12 @@
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="K428" s="4"/>
+      <c r="K428" s="7"/>
       <c r="L428" s="4"/>
       <c r="M428" s="4"/>
       <c r="N428" s="4"/>
       <c r="O428" s="4"/>
+      <c r="P428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -7681,11 +8115,12 @@
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="K429" s="4"/>
+      <c r="K429" s="7"/>
       <c r="L429" s="4"/>
       <c r="M429" s="4"/>
       <c r="N429" s="4"/>
       <c r="O429" s="4"/>
+      <c r="P429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -7698,11 +8133,12 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="K430" s="4"/>
+      <c r="K430" s="7"/>
       <c r="L430" s="4"/>
       <c r="M430" s="4"/>
       <c r="N430" s="4"/>
       <c r="O430" s="4"/>
+      <c r="P430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -7715,11 +8151,12 @@
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="K431" s="4"/>
+      <c r="K431" s="7"/>
       <c r="L431" s="4"/>
       <c r="M431" s="4"/>
       <c r="N431" s="4"/>
       <c r="O431" s="4"/>
+      <c r="P431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -7732,11 +8169,12 @@
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
-      <c r="K432" s="4"/>
+      <c r="K432" s="7"/>
       <c r="L432" s="4"/>
       <c r="M432" s="4"/>
       <c r="N432" s="4"/>
       <c r="O432" s="4"/>
+      <c r="P432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -7749,11 +8187,12 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
-      <c r="K433" s="4"/>
+      <c r="K433" s="7"/>
       <c r="L433" s="4"/>
       <c r="M433" s="4"/>
       <c r="N433" s="4"/>
       <c r="O433" s="4"/>
+      <c r="P433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -7766,11 +8205,12 @@
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="K434" s="4"/>
+      <c r="K434" s="7"/>
       <c r="L434" s="4"/>
       <c r="M434" s="4"/>
       <c r="N434" s="4"/>
       <c r="O434" s="4"/>
+      <c r="P434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -7783,11 +8223,12 @@
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="K435" s="4"/>
+      <c r="K435" s="7"/>
       <c r="L435" s="4"/>
       <c r="M435" s="4"/>
       <c r="N435" s="4"/>
       <c r="O435" s="4"/>
+      <c r="P435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -7800,11 +8241,12 @@
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="K436" s="4"/>
+      <c r="K436" s="7"/>
       <c r="L436" s="4"/>
       <c r="M436" s="4"/>
       <c r="N436" s="4"/>
       <c r="O436" s="4"/>
+      <c r="P436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -7817,11 +8259,12 @@
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="K437" s="4"/>
+      <c r="K437" s="7"/>
       <c r="L437" s="4"/>
       <c r="M437" s="4"/>
       <c r="N437" s="4"/>
       <c r="O437" s="4"/>
+      <c r="P437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -7834,11 +8277,12 @@
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="K438" s="4"/>
+      <c r="K438" s="7"/>
       <c r="L438" s="4"/>
       <c r="M438" s="4"/>
       <c r="N438" s="4"/>
       <c r="O438" s="4"/>
+      <c r="P438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -7851,11 +8295,12 @@
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="K439" s="4"/>
+      <c r="K439" s="7"/>
       <c r="L439" s="4"/>
       <c r="M439" s="4"/>
       <c r="N439" s="4"/>
       <c r="O439" s="4"/>
+      <c r="P439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -7868,11 +8313,12 @@
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="K440" s="4"/>
+      <c r="K440" s="7"/>
       <c r="L440" s="4"/>
       <c r="M440" s="4"/>
       <c r="N440" s="4"/>
       <c r="O440" s="4"/>
+      <c r="P440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -7885,11 +8331,12 @@
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="K441" s="4"/>
+      <c r="K441" s="7"/>
       <c r="L441" s="4"/>
       <c r="M441" s="4"/>
       <c r="N441" s="4"/>
       <c r="O441" s="4"/>
+      <c r="P441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -7902,11 +8349,12 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="K442" s="4"/>
+      <c r="K442" s="7"/>
       <c r="L442" s="4"/>
       <c r="M442" s="4"/>
       <c r="N442" s="4"/>
       <c r="O442" s="4"/>
+      <c r="P442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -7919,11 +8367,12 @@
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="K443" s="4"/>
+      <c r="K443" s="7"/>
       <c r="L443" s="4"/>
       <c r="M443" s="4"/>
       <c r="N443" s="4"/>
       <c r="O443" s="4"/>
+      <c r="P443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -7936,11 +8385,12 @@
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="K444" s="4"/>
+      <c r="K444" s="7"/>
       <c r="L444" s="4"/>
       <c r="M444" s="4"/>
       <c r="N444" s="4"/>
       <c r="O444" s="4"/>
+      <c r="P444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -7953,11 +8403,12 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
-      <c r="K445" s="4"/>
+      <c r="K445" s="7"/>
       <c r="L445" s="4"/>
       <c r="M445" s="4"/>
       <c r="N445" s="4"/>
       <c r="O445" s="4"/>
+      <c r="P445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -7970,11 +8421,12 @@
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="K446" s="4"/>
+      <c r="K446" s="7"/>
       <c r="L446" s="4"/>
       <c r="M446" s="4"/>
       <c r="N446" s="4"/>
       <c r="O446" s="4"/>
+      <c r="P446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -7987,11 +8439,12 @@
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="K447" s="4"/>
+      <c r="K447" s="7"/>
       <c r="L447" s="4"/>
       <c r="M447" s="4"/>
       <c r="N447" s="4"/>
       <c r="O447" s="4"/>
+      <c r="P447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -8004,11 +8457,12 @@
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="K448" s="4"/>
+      <c r="K448" s="7"/>
       <c r="L448" s="4"/>
       <c r="M448" s="4"/>
       <c r="N448" s="4"/>
       <c r="O448" s="4"/>
+      <c r="P448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -8021,11 +8475,12 @@
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="K449" s="4"/>
+      <c r="K449" s="7"/>
       <c r="L449" s="4"/>
       <c r="M449" s="4"/>
       <c r="N449" s="4"/>
       <c r="O449" s="4"/>
+      <c r="P449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -8038,11 +8493,12 @@
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="K450" s="4"/>
+      <c r="K450" s="7"/>
       <c r="L450" s="4"/>
       <c r="M450" s="4"/>
       <c r="N450" s="4"/>
       <c r="O450" s="4"/>
+      <c r="P450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -8055,11 +8511,12 @@
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="K451" s="4"/>
+      <c r="K451" s="7"/>
       <c r="L451" s="4"/>
       <c r="M451" s="4"/>
       <c r="N451" s="4"/>
       <c r="O451" s="4"/>
+      <c r="P451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -8072,11 +8529,12 @@
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="K452" s="4"/>
+      <c r="K452" s="7"/>
       <c r="L452" s="4"/>
       <c r="M452" s="4"/>
       <c r="N452" s="4"/>
       <c r="O452" s="4"/>
+      <c r="P452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -8089,11 +8547,12 @@
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="K453" s="4"/>
+      <c r="K453" s="7"/>
       <c r="L453" s="4"/>
       <c r="M453" s="4"/>
       <c r="N453" s="4"/>
       <c r="O453" s="4"/>
+      <c r="P453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -8106,11 +8565,12 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="K454" s="4"/>
+      <c r="K454" s="7"/>
       <c r="L454" s="4"/>
       <c r="M454" s="4"/>
       <c r="N454" s="4"/>
       <c r="O454" s="4"/>
+      <c r="P454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -8123,11 +8583,12 @@
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="K455" s="4"/>
+      <c r="K455" s="7"/>
       <c r="L455" s="4"/>
       <c r="M455" s="4"/>
       <c r="N455" s="4"/>
       <c r="O455" s="4"/>
+      <c r="P455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -8140,11 +8601,12 @@
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="K456" s="4"/>
+      <c r="K456" s="7"/>
       <c r="L456" s="4"/>
       <c r="M456" s="4"/>
       <c r="N456" s="4"/>
       <c r="O456" s="4"/>
+      <c r="P456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -8157,11 +8619,12 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
-      <c r="K457" s="4"/>
+      <c r="K457" s="7"/>
       <c r="L457" s="4"/>
       <c r="M457" s="4"/>
       <c r="N457" s="4"/>
       <c r="O457" s="4"/>
+      <c r="P457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -8174,11 +8637,12 @@
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="K458" s="4"/>
+      <c r="K458" s="7"/>
       <c r="L458" s="4"/>
       <c r="M458" s="4"/>
       <c r="N458" s="4"/>
       <c r="O458" s="4"/>
+      <c r="P458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -8191,11 +8655,12 @@
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="K459" s="4"/>
+      <c r="K459" s="7"/>
       <c r="L459" s="4"/>
       <c r="M459" s="4"/>
       <c r="N459" s="4"/>
       <c r="O459" s="4"/>
+      <c r="P459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -8208,11 +8673,12 @@
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="K460" s="4"/>
+      <c r="K460" s="7"/>
       <c r="L460" s="4"/>
       <c r="M460" s="4"/>
       <c r="N460" s="4"/>
       <c r="O460" s="4"/>
+      <c r="P460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -8225,11 +8691,12 @@
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="K461" s="4"/>
+      <c r="K461" s="7"/>
       <c r="L461" s="4"/>
       <c r="M461" s="4"/>
       <c r="N461" s="4"/>
       <c r="O461" s="4"/>
+      <c r="P461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -8242,11 +8709,12 @@
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="K462" s="4"/>
+      <c r="K462" s="7"/>
       <c r="L462" s="4"/>
       <c r="M462" s="4"/>
       <c r="N462" s="4"/>
       <c r="O462" s="4"/>
+      <c r="P462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -8259,11 +8727,12 @@
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="K463" s="4"/>
+      <c r="K463" s="7"/>
       <c r="L463" s="4"/>
       <c r="M463" s="4"/>
       <c r="N463" s="4"/>
       <c r="O463" s="4"/>
+      <c r="P463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -8276,11 +8745,12 @@
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
-      <c r="K464" s="4"/>
+      <c r="K464" s="7"/>
       <c r="L464" s="4"/>
       <c r="M464" s="4"/>
       <c r="N464" s="4"/>
       <c r="O464" s="4"/>
+      <c r="P464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -8293,11 +8763,12 @@
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
-      <c r="K465" s="4"/>
+      <c r="K465" s="7"/>
       <c r="L465" s="4"/>
       <c r="M465" s="4"/>
       <c r="N465" s="4"/>
       <c r="O465" s="4"/>
+      <c r="P465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -8310,11 +8781,12 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
-      <c r="K466" s="4"/>
+      <c r="K466" s="7"/>
       <c r="L466" s="4"/>
       <c r="M466" s="4"/>
       <c r="N466" s="4"/>
       <c r="O466" s="4"/>
+      <c r="P466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -8327,11 +8799,12 @@
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
-      <c r="K467" s="4"/>
+      <c r="K467" s="7"/>
       <c r="L467" s="4"/>
       <c r="M467" s="4"/>
       <c r="N467" s="4"/>
       <c r="O467" s="4"/>
+      <c r="P467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -8344,11 +8817,12 @@
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
-      <c r="K468" s="4"/>
+      <c r="K468" s="7"/>
       <c r="L468" s="4"/>
       <c r="M468" s="4"/>
       <c r="N468" s="4"/>
       <c r="O468" s="4"/>
+      <c r="P468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -8361,11 +8835,12 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
-      <c r="K469" s="4"/>
+      <c r="K469" s="7"/>
       <c r="L469" s="4"/>
       <c r="M469" s="4"/>
       <c r="N469" s="4"/>
       <c r="O469" s="4"/>
+      <c r="P469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -8378,11 +8853,12 @@
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
-      <c r="K470" s="4"/>
+      <c r="K470" s="7"/>
       <c r="L470" s="4"/>
       <c r="M470" s="4"/>
       <c r="N470" s="4"/>
       <c r="O470" s="4"/>
+      <c r="P470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -8395,11 +8871,12 @@
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
-      <c r="K471" s="4"/>
+      <c r="K471" s="7"/>
       <c r="L471" s="4"/>
       <c r="M471" s="4"/>
       <c r="N471" s="4"/>
       <c r="O471" s="4"/>
+      <c r="P471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -8412,11 +8889,12 @@
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
-      <c r="K472" s="4"/>
+      <c r="K472" s="7"/>
       <c r="L472" s="4"/>
       <c r="M472" s="4"/>
       <c r="N472" s="4"/>
       <c r="O472" s="4"/>
+      <c r="P472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -8429,11 +8907,12 @@
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
-      <c r="K473" s="4"/>
+      <c r="K473" s="7"/>
       <c r="L473" s="4"/>
       <c r="M473" s="4"/>
       <c r="N473" s="4"/>
       <c r="O473" s="4"/>
+      <c r="P473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -8446,11 +8925,12 @@
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
-      <c r="K474" s="4"/>
+      <c r="K474" s="7"/>
       <c r="L474" s="4"/>
       <c r="M474" s="4"/>
       <c r="N474" s="4"/>
       <c r="O474" s="4"/>
+      <c r="P474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -8463,11 +8943,12 @@
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
-      <c r="K475" s="4"/>
+      <c r="K475" s="7"/>
       <c r="L475" s="4"/>
       <c r="M475" s="4"/>
       <c r="N475" s="4"/>
       <c r="O475" s="4"/>
+      <c r="P475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -8480,11 +8961,12 @@
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
-      <c r="K476" s="4"/>
+      <c r="K476" s="7"/>
       <c r="L476" s="4"/>
       <c r="M476" s="4"/>
       <c r="N476" s="4"/>
       <c r="O476" s="4"/>
+      <c r="P476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -8497,11 +8979,12 @@
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="K477" s="4"/>
+      <c r="K477" s="7"/>
       <c r="L477" s="4"/>
       <c r="M477" s="4"/>
       <c r="N477" s="4"/>
       <c r="O477" s="4"/>
+      <c r="P477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -8514,11 +8997,12 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
-      <c r="K478" s="4"/>
+      <c r="K478" s="7"/>
       <c r="L478" s="4"/>
       <c r="M478" s="4"/>
       <c r="N478" s="4"/>
       <c r="O478" s="4"/>
+      <c r="P478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -8531,11 +9015,12 @@
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="K479" s="4"/>
+      <c r="K479" s="7"/>
       <c r="L479" s="4"/>
       <c r="M479" s="4"/>
       <c r="N479" s="4"/>
       <c r="O479" s="4"/>
+      <c r="P479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -8548,11 +9033,12 @@
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
-      <c r="K480" s="4"/>
+      <c r="K480" s="7"/>
       <c r="L480" s="4"/>
       <c r="M480" s="4"/>
       <c r="N480" s="4"/>
       <c r="O480" s="4"/>
+      <c r="P480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -8565,11 +9051,12 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
-      <c r="K481" s="4"/>
+      <c r="K481" s="7"/>
       <c r="L481" s="4"/>
       <c r="M481" s="4"/>
       <c r="N481" s="4"/>
       <c r="O481" s="4"/>
+      <c r="P481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -8582,11 +9069,12 @@
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
-      <c r="K482" s="4"/>
+      <c r="K482" s="7"/>
       <c r="L482" s="4"/>
       <c r="M482" s="4"/>
       <c r="N482" s="4"/>
       <c r="O482" s="4"/>
+      <c r="P482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -8599,11 +9087,12 @@
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
       <c r="J483" s="4"/>
-      <c r="K483" s="4"/>
+      <c r="K483" s="7"/>
       <c r="L483" s="4"/>
       <c r="M483" s="4"/>
       <c r="N483" s="4"/>
       <c r="O483" s="4"/>
+      <c r="P483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -8616,11 +9105,12 @@
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
-      <c r="K484" s="4"/>
+      <c r="K484" s="7"/>
       <c r="L484" s="4"/>
       <c r="M484" s="4"/>
       <c r="N484" s="4"/>
       <c r="O484" s="4"/>
+      <c r="P484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -8633,11 +9123,12 @@
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
       <c r="J485" s="4"/>
-      <c r="K485" s="4"/>
+      <c r="K485" s="7"/>
       <c r="L485" s="4"/>
       <c r="M485" s="4"/>
       <c r="N485" s="4"/>
       <c r="O485" s="4"/>
+      <c r="P485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -8650,11 +9141,12 @@
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
       <c r="J486" s="4"/>
-      <c r="K486" s="4"/>
+      <c r="K486" s="7"/>
       <c r="L486" s="4"/>
       <c r="M486" s="4"/>
       <c r="N486" s="4"/>
       <c r="O486" s="4"/>
+      <c r="P486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -8667,11 +9159,12 @@
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
       <c r="J487" s="4"/>
-      <c r="K487" s="4"/>
+      <c r="K487" s="7"/>
       <c r="L487" s="4"/>
       <c r="M487" s="4"/>
       <c r="N487" s="4"/>
       <c r="O487" s="4"/>
+      <c r="P487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -8684,11 +9177,12 @@
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
       <c r="J488" s="4"/>
-      <c r="K488" s="4"/>
+      <c r="K488" s="7"/>
       <c r="L488" s="4"/>
       <c r="M488" s="4"/>
       <c r="N488" s="4"/>
       <c r="O488" s="4"/>
+      <c r="P488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -8701,11 +9195,12 @@
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
       <c r="J489" s="4"/>
-      <c r="K489" s="4"/>
+      <c r="K489" s="7"/>
       <c r="L489" s="4"/>
       <c r="M489" s="4"/>
       <c r="N489" s="4"/>
       <c r="O489" s="4"/>
+      <c r="P489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -8718,11 +9213,12 @@
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
       <c r="J490" s="4"/>
-      <c r="K490" s="4"/>
+      <c r="K490" s="7"/>
       <c r="L490" s="4"/>
       <c r="M490" s="4"/>
       <c r="N490" s="4"/>
       <c r="O490" s="4"/>
+      <c r="P490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -8735,11 +9231,12 @@
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
       <c r="J491" s="4"/>
-      <c r="K491" s="4"/>
+      <c r="K491" s="7"/>
       <c r="L491" s="4"/>
       <c r="M491" s="4"/>
       <c r="N491" s="4"/>
       <c r="O491" s="4"/>
+      <c r="P491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -8752,11 +9249,12 @@
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
       <c r="J492" s="4"/>
-      <c r="K492" s="4"/>
+      <c r="K492" s="7"/>
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
       <c r="N492" s="4"/>
       <c r="O492" s="4"/>
+      <c r="P492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -8769,11 +9267,12 @@
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
       <c r="J493" s="4"/>
-      <c r="K493" s="4"/>
+      <c r="K493" s="7"/>
       <c r="L493" s="4"/>
       <c r="M493" s="4"/>
       <c r="N493" s="4"/>
       <c r="O493" s="4"/>
+      <c r="P493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -8786,11 +9285,12 @@
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
       <c r="J494" s="4"/>
-      <c r="K494" s="4"/>
+      <c r="K494" s="7"/>
       <c r="L494" s="4"/>
       <c r="M494" s="4"/>
       <c r="N494" s="4"/>
       <c r="O494" s="4"/>
+      <c r="P494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -8803,11 +9303,12 @@
       <c r="H495" s="4"/>
       <c r="I495" s="4"/>
       <c r="J495" s="4"/>
-      <c r="K495" s="4"/>
+      <c r="K495" s="7"/>
       <c r="L495" s="4"/>
       <c r="M495" s="4"/>
       <c r="N495" s="4"/>
       <c r="O495" s="4"/>
+      <c r="P495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -8820,11 +9321,12 @@
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
       <c r="J496" s="4"/>
-      <c r="K496" s="4"/>
+      <c r="K496" s="7"/>
       <c r="L496" s="4"/>
       <c r="M496" s="4"/>
       <c r="N496" s="4"/>
       <c r="O496" s="4"/>
+      <c r="P496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -8837,11 +9339,12 @@
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
       <c r="J497" s="4"/>
-      <c r="K497" s="4"/>
+      <c r="K497" s="7"/>
       <c r="L497" s="4"/>
       <c r="M497" s="4"/>
       <c r="N497" s="4"/>
       <c r="O497" s="4"/>
+      <c r="P497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -8854,30 +9357,31 @@
       <c r="H498" s="4"/>
       <c r="I498" s="4"/>
       <c r="J498" s="4"/>
-      <c r="K498" s="4"/>
+      <c r="K498" s="7"/>
       <c r="L498" s="4"/>
       <c r="M498" s="4"/>
       <c r="N498" s="4"/>
       <c r="O498" s="4"/>
+      <c r="P498" s="4"/>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D498">
       <formula1>"Laki - Laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J498">
-      <formula1>"Kepala Keluarga,Istri,Anak"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G498">
       <formula1>"A,B,O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J498">
+      <formula1>"Kepala Keluarga,Istri,Anak,Lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I498">
       <formula1>"Belum Menikah,Menikah,Janda,Duda"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L498">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M498">
       <formula1>"PNS,Pegawai Swasta,TNI,POLRI,Guru,Petani,Pedagang,Wiraswasta,Pelajar,Mahasiswa,Buruh,Pengangguran,Pensiunan,Lainnya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N498">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O2:O498">
       <formula1>"aktif,tidak aktif - meninggal,tidak aktif - pindah,tidak aktif - lainnya"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H498">
